--- a/Docs/Results/Resultados de clasificación por relevancia v1.xlsx
+++ b/Docs/Results/Resultados de clasificación por relevancia v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ray\NLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ray\Repositories\Requeriments-Classifier-with-Transformers\Docs\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -916,7 +916,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1288,7 +1288,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1305,39 +1304,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1373,6 +1339,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -1712,7 +1724,7 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="154" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1730,7 +1742,7 @@
       <c r="G3" s="13">
         <v>0.91684434968017003</v>
       </c>
-      <c r="I3" s="140" t="s">
+      <c r="I3" s="154" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="8" t="s">
@@ -1750,7 +1762,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="141"/>
+      <c r="B4" s="155"/>
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1766,7 +1778,7 @@
       <c r="G4" s="15">
         <v>0.93360160965794703</v>
       </c>
-      <c r="I4" s="141"/>
+      <c r="I4" s="155"/>
       <c r="J4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1784,7 +1796,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="141"/>
+      <c r="B5" s="155"/>
       <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
@@ -1800,7 +1812,7 @@
       <c r="G5" s="15">
         <v>0.94538606403013103</v>
       </c>
-      <c r="I5" s="141"/>
+      <c r="I5" s="155"/>
       <c r="J5" s="9" t="s">
         <v>3</v>
       </c>
@@ -1818,7 +1830,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="141"/>
+      <c r="B6" s="155"/>
       <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
@@ -1834,7 +1846,7 @@
       <c r="G6" s="15">
         <v>0.93006993006993</v>
       </c>
-      <c r="I6" s="141"/>
+      <c r="I6" s="155"/>
       <c r="J6" s="9" t="s">
         <v>4</v>
       </c>
@@ -1852,7 +1864,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="141"/>
+      <c r="B7" s="155"/>
       <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
@@ -1868,7 +1880,7 @@
       <c r="G7" s="15">
         <v>0.92727272727272703</v>
       </c>
-      <c r="I7" s="141"/>
+      <c r="I7" s="155"/>
       <c r="J7" s="9" t="s">
         <v>5</v>
       </c>
@@ -1886,7 +1898,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="142"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="16" t="s">
         <v>6</v>
       </c>
@@ -1902,7 +1914,7 @@
       <c r="G8" s="18">
         <v>0.93063493614218096</v>
       </c>
-      <c r="I8" s="142"/>
+      <c r="I8" s="156"/>
       <c r="J8" s="16" t="s">
         <v>6</v>
       </c>
@@ -1920,7 +1932,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="154" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1946,7 +1958,7 @@
       <c r="N9" s="43"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="141"/>
+      <c r="B10" s="155"/>
       <c r="C10" s="9" t="s">
         <v>2</v>
       </c>
@@ -1970,7 +1982,7 @@
       <c r="N10" s="43"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="141"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="9" t="s">
         <v>3</v>
       </c>
@@ -1994,7 +2006,7 @@
       <c r="N11" s="43"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="141"/>
+      <c r="B12" s="155"/>
       <c r="C12" s="9" t="s">
         <v>4</v>
       </c>
@@ -2018,7 +2030,7 @@
       <c r="N12" s="47"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="141"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
@@ -2042,7 +2054,7 @@
       <c r="N13" s="43"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="142"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="16" t="s">
         <v>6</v>
       </c>
@@ -2066,7 +2078,7 @@
       <c r="N14" s="43"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="140" t="s">
+      <c r="B15" s="154" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -2087,7 +2099,7 @@
       <c r="I15" s="44"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="141"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="9" t="s">
         <v>2</v>
       </c>
@@ -2111,7 +2123,7 @@
       <c r="N16" s="43"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="141"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="9" t="s">
         <v>3</v>
       </c>
@@ -2135,7 +2147,7 @@
       <c r="N17" s="43"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="141"/>
+      <c r="B18" s="155"/>
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
@@ -2159,7 +2171,7 @@
       <c r="N18" s="47"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="141"/>
+      <c r="B19" s="155"/>
       <c r="C19" s="9" t="s">
         <v>5</v>
       </c>
@@ -2177,7 +2189,7 @@
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="142"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="16" t="s">
         <v>6</v>
       </c>
@@ -2195,7 +2207,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -2215,7 +2227,7 @@
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="141"/>
+      <c r="B22" s="155"/>
       <c r="C22" s="9" t="s">
         <v>2</v>
       </c>
@@ -2233,7 +2245,7 @@
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="141"/>
+      <c r="B23" s="155"/>
       <c r="C23" s="9" t="s">
         <v>3</v>
       </c>
@@ -2251,7 +2263,7 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="141"/>
+      <c r="B24" s="155"/>
       <c r="C24" s="9" t="s">
         <v>4</v>
       </c>
@@ -2269,7 +2281,7 @@
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="141"/>
+      <c r="B25" s="155"/>
       <c r="C25" s="9" t="s">
         <v>5</v>
       </c>
@@ -2287,7 +2299,7 @@
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="142"/>
+      <c r="B26" s="156"/>
       <c r="C26" s="16" t="s">
         <v>6</v>
       </c>
@@ -2353,7 +2365,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="154" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -2373,7 +2385,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="141"/>
+      <c r="B4" s="155"/>
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
@@ -2391,7 +2403,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="141"/>
+      <c r="B5" s="155"/>
       <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
@@ -2409,7 +2421,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="141"/>
+      <c r="B6" s="155"/>
       <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
@@ -2427,7 +2439,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="141"/>
+      <c r="B7" s="155"/>
       <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
@@ -2445,7 +2457,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="142"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="16" t="s">
         <v>6</v>
       </c>
@@ -2463,7 +2475,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="154" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -2483,7 +2495,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="141"/>
+      <c r="B10" s="155"/>
       <c r="C10" s="9" t="s">
         <v>2</v>
       </c>
@@ -2501,7 +2513,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="141"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="9" t="s">
         <v>3</v>
       </c>
@@ -2519,7 +2531,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="141"/>
+      <c r="B12" s="155"/>
       <c r="C12" s="9" t="s">
         <v>4</v>
       </c>
@@ -2537,7 +2549,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="141"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
@@ -2555,7 +2567,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="142"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="16" t="s">
         <v>6</v>
       </c>
@@ -2573,7 +2585,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="140" t="s">
+      <c r="B15" s="154" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -2593,7 +2605,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="141"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="9" t="s">
         <v>2</v>
       </c>
@@ -2611,7 +2623,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="141"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="9" t="s">
         <v>3</v>
       </c>
@@ -2629,7 +2641,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="141"/>
+      <c r="B18" s="155"/>
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
@@ -2647,7 +2659,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="141"/>
+      <c r="B19" s="155"/>
       <c r="C19" s="9" t="s">
         <v>5</v>
       </c>
@@ -2665,7 +2677,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="142"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="16" t="s">
         <v>6</v>
       </c>
@@ -2683,7 +2695,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -2703,7 +2715,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="141"/>
+      <c r="B22" s="155"/>
       <c r="C22" s="9" t="s">
         <v>2</v>
       </c>
@@ -2721,7 +2733,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="141"/>
+      <c r="B23" s="155"/>
       <c r="C23" s="9" t="s">
         <v>3</v>
       </c>
@@ -2739,7 +2751,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="141"/>
+      <c r="B24" s="155"/>
       <c r="C24" s="9" t="s">
         <v>4</v>
       </c>
@@ -2757,7 +2769,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="141"/>
+      <c r="B25" s="155"/>
       <c r="C25" s="9" t="s">
         <v>5</v>
       </c>
@@ -2775,7 +2787,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="142"/>
+      <c r="B26" s="156"/>
       <c r="C26" s="16" t="s">
         <v>6</v>
       </c>
@@ -2837,7 +2849,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="154" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -2857,7 +2869,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="141"/>
+      <c r="B4" s="155"/>
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
@@ -2875,7 +2887,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="141"/>
+      <c r="B5" s="155"/>
       <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
@@ -2893,7 +2905,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="141"/>
+      <c r="B6" s="155"/>
       <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
@@ -2911,7 +2923,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="141"/>
+      <c r="B7" s="155"/>
       <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
@@ -2929,7 +2941,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="142"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="16" t="s">
         <v>6</v>
       </c>
@@ -2947,7 +2959,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="154" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -2967,7 +2979,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="141"/>
+      <c r="B10" s="155"/>
       <c r="C10" s="9" t="s">
         <v>2</v>
       </c>
@@ -2985,7 +2997,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="141"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="9" t="s">
         <v>3</v>
       </c>
@@ -3003,7 +3015,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="141"/>
+      <c r="B12" s="155"/>
       <c r="C12" s="9" t="s">
         <v>4</v>
       </c>
@@ -3021,7 +3033,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="141"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
@@ -3039,7 +3051,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="142"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="16" t="s">
         <v>6</v>
       </c>
@@ -3057,7 +3069,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="140" t="s">
+      <c r="B15" s="154" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -3077,7 +3089,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="141"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="9" t="s">
         <v>2</v>
       </c>
@@ -3095,7 +3107,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="141"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="9" t="s">
         <v>3</v>
       </c>
@@ -3113,7 +3125,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="141"/>
+      <c r="B18" s="155"/>
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
@@ -3131,7 +3143,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="141"/>
+      <c r="B19" s="155"/>
       <c r="C19" s="9" t="s">
         <v>5</v>
       </c>
@@ -3149,7 +3161,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="142"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="16" t="s">
         <v>6</v>
       </c>
@@ -3167,7 +3179,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -3187,7 +3199,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="141"/>
+      <c r="B22" s="155"/>
       <c r="C22" s="9" t="s">
         <v>2</v>
       </c>
@@ -3205,7 +3217,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="141"/>
+      <c r="B23" s="155"/>
       <c r="C23" s="9" t="s">
         <v>3</v>
       </c>
@@ -3223,7 +3235,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="141"/>
+      <c r="B24" s="155"/>
       <c r="C24" s="9" t="s">
         <v>4</v>
       </c>
@@ -3241,7 +3253,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="141"/>
+      <c r="B25" s="155"/>
       <c r="C25" s="9" t="s">
         <v>5</v>
       </c>
@@ -3259,7 +3271,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="142"/>
+      <c r="B26" s="156"/>
       <c r="C26" s="16" t="s">
         <v>6</v>
       </c>
@@ -3321,7 +3333,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="154" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -3341,7 +3353,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="141"/>
+      <c r="B4" s="155"/>
       <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
@@ -3359,7 +3371,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="141"/>
+      <c r="B5" s="155"/>
       <c r="C5" s="32" t="s">
         <v>3</v>
       </c>
@@ -3377,7 +3389,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="141"/>
+      <c r="B6" s="155"/>
       <c r="C6" s="32" t="s">
         <v>4</v>
       </c>
@@ -3395,7 +3407,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="141"/>
+      <c r="B7" s="155"/>
       <c r="C7" s="32" t="s">
         <v>5</v>
       </c>
@@ -3413,7 +3425,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="142"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="33" t="s">
         <v>6</v>
       </c>
@@ -3431,7 +3443,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="154" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="31" t="s">
@@ -3451,7 +3463,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="141"/>
+      <c r="B10" s="155"/>
       <c r="C10" s="32" t="s">
         <v>2</v>
       </c>
@@ -3469,7 +3481,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="141"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="32" t="s">
         <v>3</v>
       </c>
@@ -3487,7 +3499,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="141"/>
+      <c r="B12" s="155"/>
       <c r="C12" s="32" t="s">
         <v>4</v>
       </c>
@@ -3505,7 +3517,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="141"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="32" t="s">
         <v>5</v>
       </c>
@@ -3523,7 +3535,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="142"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="16" t="s">
         <v>6</v>
       </c>
@@ -3541,7 +3553,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="140" t="s">
+      <c r="B15" s="154" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -3561,7 +3573,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="141"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="9" t="s">
         <v>2</v>
       </c>
@@ -3579,7 +3591,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="141"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="9" t="s">
         <v>3</v>
       </c>
@@ -3597,7 +3609,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="141"/>
+      <c r="B18" s="155"/>
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
@@ -3615,7 +3627,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="141"/>
+      <c r="B19" s="155"/>
       <c r="C19" s="9" t="s">
         <v>5</v>
       </c>
@@ -3633,7 +3645,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="142"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="16" t="s">
         <v>6</v>
       </c>
@@ -3651,7 +3663,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -3671,7 +3683,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="141"/>
+      <c r="B22" s="155"/>
       <c r="C22" s="9" t="s">
         <v>2</v>
       </c>
@@ -3689,7 +3701,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="141"/>
+      <c r="B23" s="155"/>
       <c r="C23" s="9" t="s">
         <v>3</v>
       </c>
@@ -3707,7 +3719,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="141"/>
+      <c r="B24" s="155"/>
       <c r="C24" s="9" t="s">
         <v>4</v>
       </c>
@@ -3725,7 +3737,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="141"/>
+      <c r="B25" s="155"/>
       <c r="C25" s="9" t="s">
         <v>5</v>
       </c>
@@ -3743,7 +3755,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="142"/>
+      <c r="B26" s="156"/>
       <c r="C26" s="16" t="s">
         <v>6</v>
       </c>
@@ -3811,7 +3823,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="154" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="31" t="s">
@@ -3831,7 +3843,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="141"/>
+      <c r="B4" s="155"/>
       <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
@@ -3849,7 +3861,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="141"/>
+      <c r="B5" s="155"/>
       <c r="C5" s="32" t="s">
         <v>3</v>
       </c>
@@ -3867,7 +3879,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="141"/>
+      <c r="B6" s="155"/>
       <c r="C6" s="32" t="s">
         <v>4</v>
       </c>
@@ -3885,7 +3897,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="141"/>
+      <c r="B7" s="155"/>
       <c r="C7" s="32" t="s">
         <v>5</v>
       </c>
@@ -3903,7 +3915,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="142"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="33" t="s">
         <v>6</v>
       </c>
@@ -3921,7 +3933,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="154" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="31" t="s">
@@ -3941,7 +3953,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="141"/>
+      <c r="B10" s="155"/>
       <c r="C10" s="32" t="s">
         <v>2</v>
       </c>
@@ -3959,7 +3971,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="141"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="32" t="s">
         <v>3</v>
       </c>
@@ -3977,7 +3989,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="141"/>
+      <c r="B12" s="155"/>
       <c r="C12" s="32" t="s">
         <v>4</v>
       </c>
@@ -3995,7 +4007,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="141"/>
+      <c r="B13" s="155"/>
       <c r="C13" s="32" t="s">
         <v>5</v>
       </c>
@@ -4013,7 +4025,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="142"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="33" t="s">
         <v>6</v>
       </c>
@@ -4031,7 +4043,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="140" t="s">
+      <c r="B15" s="154" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -4051,7 +4063,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="141"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="9" t="s">
         <v>2</v>
       </c>
@@ -4069,7 +4081,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="141"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="9" t="s">
         <v>3</v>
       </c>
@@ -4087,7 +4099,7 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="141"/>
+      <c r="B18" s="155"/>
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
@@ -4105,7 +4117,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="141"/>
+      <c r="B19" s="155"/>
       <c r="C19" s="9" t="s">
         <v>5</v>
       </c>
@@ -4123,7 +4135,7 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="142"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="16" t="s">
         <v>6</v>
       </c>
@@ -4141,7 +4153,7 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="154" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -4161,7 +4173,7 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="141"/>
+      <c r="B22" s="155"/>
       <c r="C22" s="9" t="s">
         <v>2</v>
       </c>
@@ -4179,7 +4191,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="141"/>
+      <c r="B23" s="155"/>
       <c r="C23" s="9" t="s">
         <v>3</v>
       </c>
@@ -4197,7 +4209,7 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="141"/>
+      <c r="B24" s="155"/>
       <c r="C24" s="9" t="s">
         <v>4</v>
       </c>
@@ -4215,7 +4227,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="141"/>
+      <c r="B25" s="155"/>
       <c r="C25" s="9" t="s">
         <v>5</v>
       </c>
@@ -4233,7 +4245,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="142"/>
+      <c r="B26" s="156"/>
       <c r="C26" s="16" t="s">
         <v>6</v>
       </c>
@@ -4266,8 +4278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:J25"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4320,7 +4332,7 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="160" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="37" t="s">
@@ -4338,7 +4350,7 @@
       <c r="G3" s="103">
         <v>0.88459075177312696</v>
       </c>
-      <c r="I3" s="143" t="s">
+      <c r="I3" s="157" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="36" t="s">
@@ -4358,7 +4370,7 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="147"/>
+      <c r="B4" s="161"/>
       <c r="C4" s="37" t="s">
         <v>26</v>
       </c>
@@ -4374,8 +4386,8 @@
       <c r="G4" s="103">
         <v>0.83597018030965797</v>
       </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="132" t="s">
+      <c r="I4" s="158"/>
+      <c r="J4" s="82" t="s">
         <v>32</v>
       </c>
       <c r="K4" s="54">
@@ -4392,7 +4404,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="147"/>
+      <c r="B5" s="161"/>
       <c r="C5" s="37" t="s">
         <v>24</v>
       </c>
@@ -4408,7 +4420,7 @@
       <c r="G5" s="106">
         <v>0.92966594521001</v>
       </c>
-      <c r="I5" s="144"/>
+      <c r="I5" s="158"/>
       <c r="J5" s="78" t="s">
         <v>35</v>
       </c>
@@ -4426,7 +4438,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="147"/>
+      <c r="B6" s="161"/>
       <c r="C6" s="37" t="s">
         <v>27</v>
       </c>
@@ -4442,7 +4454,7 @@
       <c r="G6" s="106">
         <v>0.88329708504354798</v>
       </c>
-      <c r="I6" s="144"/>
+      <c r="I6" s="158"/>
       <c r="J6" s="37" t="s">
         <v>33</v>
       </c>
@@ -4460,7 +4472,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="148"/>
+      <c r="B7" s="162"/>
       <c r="C7" s="42" t="s">
         <v>21</v>
       </c>
@@ -4476,7 +4488,7 @@
       <c r="G7" s="110">
         <v>0.93063493614218096</v>
       </c>
-      <c r="I7" s="144"/>
+      <c r="I7" s="158"/>
       <c r="J7" s="37" t="s">
         <v>34</v>
       </c>
@@ -4494,7 +4506,7 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="163" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="36" t="s">
@@ -4512,7 +4524,7 @@
       <c r="G8" s="113">
         <v>0.83784350915869898</v>
       </c>
-      <c r="I8" s="144"/>
+      <c r="I8" s="158"/>
       <c r="J8" s="38"/>
       <c r="K8" s="66"/>
       <c r="L8" s="67"/>
@@ -4520,7 +4532,7 @@
       <c r="N8" s="68"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="147"/>
+      <c r="B9" s="161"/>
       <c r="C9" s="37" t="s">
         <v>26</v>
       </c>
@@ -4536,25 +4548,25 @@
       <c r="G9" s="103">
         <v>0.90930003916414903</v>
       </c>
-      <c r="I9" s="144"/>
-      <c r="J9" s="133" t="s">
+      <c r="I9" s="158"/>
+      <c r="J9" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="165">
         <v>0.93766666666666598</v>
       </c>
       <c r="L9" s="70">
         <v>0.919910936457637</v>
       </c>
-      <c r="M9" s="74">
+      <c r="M9" s="165">
         <v>0.94001077911094899</v>
       </c>
-      <c r="N9" s="100">
+      <c r="N9" s="166">
         <v>0.92966594521001</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="147"/>
+      <c r="B10" s="161"/>
       <c r="C10" s="41" t="s">
         <v>24</v>
       </c>
@@ -4570,25 +4582,25 @@
       <c r="G10" s="115">
         <v>0.94811172337970895</v>
       </c>
-      <c r="I10" s="144"/>
-      <c r="J10" s="37" t="s">
+      <c r="I10" s="158"/>
+      <c r="J10" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="49">
-        <v>0.93466666666666598</v>
-      </c>
-      <c r="L10" s="65">
-        <v>0.93741199408543097</v>
-      </c>
-      <c r="M10" s="49">
-        <v>0.91706490903371796</v>
-      </c>
-      <c r="N10" s="52">
-        <v>0.92695667228769496</v>
+      <c r="K10" s="54">
+        <v>0.94199999999999895</v>
+      </c>
+      <c r="L10" s="73">
+        <v>0.91587328317245098</v>
+      </c>
+      <c r="M10" s="54">
+        <v>0.95263448409776297</v>
+      </c>
+      <c r="N10" s="55">
+        <v>0.93380756718922198</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="147"/>
+      <c r="B11" s="161"/>
       <c r="C11" s="37" t="s">
         <v>27</v>
       </c>
@@ -4604,7 +4616,7 @@
       <c r="G11" s="103">
         <v>0.89287489814717602</v>
       </c>
-      <c r="I11" s="144"/>
+      <c r="I11" s="158"/>
       <c r="J11" s="78" t="s">
         <v>36</v>
       </c>
@@ -4622,7 +4634,7 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="150"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="38" t="s">
         <v>21</v>
       </c>
@@ -4638,7 +4650,7 @@
       <c r="G12" s="117">
         <v>0.94455614281048605</v>
       </c>
-      <c r="I12" s="144"/>
+      <c r="I12" s="158"/>
       <c r="J12" s="37" t="s">
         <v>37</v>
       </c>
@@ -4656,7 +4668,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="163" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="36" t="s">
@@ -4674,7 +4686,7 @@
       <c r="G13" s="120">
         <v>0.81655865710653197</v>
       </c>
-      <c r="I13" s="144"/>
+      <c r="I13" s="158"/>
       <c r="J13" s="37" t="s">
         <v>38</v>
       </c>
@@ -4692,7 +4704,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="147"/>
+      <c r="B14" s="161"/>
       <c r="C14" s="37" t="s">
         <v>26</v>
       </c>
@@ -4708,7 +4720,7 @@
       <c r="G14" s="106">
         <v>0.92715192147623104</v>
       </c>
-      <c r="I14" s="144"/>
+      <c r="I14" s="158"/>
       <c r="J14" s="37"/>
       <c r="K14" s="72"/>
       <c r="L14" s="70"/>
@@ -4716,7 +4728,7 @@
       <c r="N14" s="69"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="147"/>
+      <c r="B15" s="161"/>
       <c r="C15" s="41" t="s">
         <v>24</v>
       </c>
@@ -4732,7 +4744,7 @@
       <c r="G15" s="115">
         <v>0.960488422521524</v>
       </c>
-      <c r="I15" s="143" t="s">
+      <c r="I15" s="157" t="s">
         <v>40</v>
       </c>
       <c r="J15" s="36" t="s">
@@ -4752,7 +4764,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="147"/>
+      <c r="B16" s="161"/>
       <c r="C16" s="37" t="s">
         <v>27</v>
       </c>
@@ -4768,7 +4780,7 @@
       <c r="G16" s="103">
         <v>0.88515109211177201</v>
       </c>
-      <c r="I16" s="144"/>
+      <c r="I16" s="158"/>
       <c r="J16" s="37" t="s">
         <v>32</v>
       </c>
@@ -4786,7 +4798,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="150"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="38" t="s">
         <v>21</v>
       </c>
@@ -4802,7 +4814,7 @@
       <c r="G17" s="126">
         <v>0.94960659490389299</v>
       </c>
-      <c r="I17" s="144"/>
+      <c r="I17" s="158"/>
       <c r="J17" s="131" t="s">
         <v>35</v>
       </c>
@@ -4820,7 +4832,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="163" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="37" t="s">
@@ -4838,7 +4850,7 @@
       <c r="G18" s="106">
         <v>0.82443696037685399</v>
       </c>
-      <c r="I18" s="144"/>
+      <c r="I18" s="158"/>
       <c r="J18" s="37" t="s">
         <v>33</v>
       </c>
@@ -4856,7 +4868,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="147"/>
+      <c r="B19" s="161"/>
       <c r="C19" s="37" t="s">
         <v>26</v>
       </c>
@@ -4872,7 +4884,7 @@
       <c r="G19" s="106">
         <v>0.88272122487528404</v>
       </c>
-      <c r="I19" s="144"/>
+      <c r="I19" s="158"/>
       <c r="J19" s="86" t="s">
         <v>34</v>
       </c>
@@ -4890,7 +4902,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="147"/>
+      <c r="B20" s="161"/>
       <c r="C20" s="41" t="s">
         <v>24</v>
       </c>
@@ -4906,7 +4918,7 @@
       <c r="G20" s="115">
         <v>0.95167123552427801</v>
       </c>
-      <c r="I20" s="144"/>
+      <c r="I20" s="158"/>
       <c r="J20" s="37"/>
       <c r="K20" s="76"/>
       <c r="L20" s="72"/>
@@ -4914,7 +4926,7 @@
       <c r="N20" s="69"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="147"/>
+      <c r="B21" s="161"/>
       <c r="C21" s="37" t="s">
         <v>27</v>
       </c>
@@ -4930,7 +4942,7 @@
       <c r="G21" s="103">
         <v>0.87920035047497902</v>
       </c>
-      <c r="I21" s="144"/>
+      <c r="I21" s="158"/>
       <c r="J21" s="59" t="s">
         <v>24</v>
       </c>
@@ -4948,7 +4960,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="150"/>
+      <c r="B22" s="164"/>
       <c r="C22" s="38" t="s">
         <v>21</v>
       </c>
@@ -4964,7 +4976,7 @@
       <c r="G22" s="126">
         <v>0.94032543064146701</v>
       </c>
-      <c r="I22" s="144"/>
+      <c r="I22" s="158"/>
       <c r="J22" s="132" t="s">
         <v>39</v>
       </c>
@@ -4982,7 +4994,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I23" s="144"/>
+      <c r="I23" s="158"/>
       <c r="J23" s="78" t="s">
         <v>36</v>
       </c>
@@ -5000,7 +5012,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I24" s="144"/>
+      <c r="I24" s="158"/>
       <c r="J24" s="37" t="s">
         <v>37</v>
       </c>
@@ -5018,7 +5030,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="144"/>
+      <c r="I25" s="158"/>
       <c r="J25" s="37" t="s">
         <v>38</v>
       </c>
@@ -5039,22 +5051,22 @@
       <c r="B26" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="157" t="s">
+      <c r="C26" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="156" t="s">
+      <c r="D26" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="157" t="s">
+      <c r="E26" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="156" t="s">
+      <c r="F26" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="158" t="s">
+      <c r="G26" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="145"/>
+      <c r="I26" s="159"/>
       <c r="J26" s="37"/>
       <c r="K26" s="76"/>
       <c r="L26" s="81"/>
@@ -5065,26 +5077,26 @@
       <c r="A27">
         <v>1</v>
       </c>
-      <c r="B27" s="154" t="s">
+      <c r="B27" s="142" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="70">
         <v>0.88459075177312696</v>
       </c>
-      <c r="D27" s="138">
+      <c r="D27" s="137">
         <v>0.83784350915869898</v>
       </c>
       <c r="E27" s="70">
         <v>0.81655865710653197</v>
       </c>
-      <c r="F27" s="138">
+      <c r="F27" s="137">
         <v>0.82443696037685399</v>
       </c>
       <c r="G27" s="69">
         <f>AVERAGE(C27,D27,E27,F27)</f>
         <v>0.84085746960380292</v>
       </c>
-      <c r="I27" s="143" t="s">
+      <c r="I27" s="157" t="s">
         <v>41</v>
       </c>
       <c r="J27" s="36" t="s">
@@ -5107,26 +5119,26 @@
       <c r="A28">
         <v>2</v>
       </c>
-      <c r="B28" s="154" t="s">
+      <c r="B28" s="142" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="70">
         <v>0.88329708504354798</v>
       </c>
-      <c r="D28" s="138">
+      <c r="D28" s="137">
         <v>0.89287489814717602</v>
       </c>
       <c r="E28" s="70">
         <v>0.88515109211177201</v>
       </c>
-      <c r="F28" s="138">
+      <c r="F28" s="137">
         <v>0.87920035047497902</v>
       </c>
       <c r="G28" s="69">
-        <f t="shared" ref="G28:G35" si="0">AVERAGE(C28,D28,E28,F28)</f>
+        <f t="shared" ref="G28:G30" si="0">AVERAGE(C28,D28,E28,F28)</f>
         <v>0.88513085644436873</v>
       </c>
-      <c r="I28" s="144"/>
+      <c r="I28" s="158"/>
       <c r="J28" s="82" t="s">
         <v>32</v>
       </c>
@@ -5147,26 +5159,26 @@
       <c r="A29">
         <v>3</v>
       </c>
-      <c r="B29" s="154" t="s">
+      <c r="B29" s="142" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="70">
         <v>0.83597018030965797</v>
       </c>
-      <c r="D29" s="138">
+      <c r="D29" s="137">
         <v>0.90930003916414903</v>
       </c>
       <c r="E29" s="70">
         <v>0.92715192147623104</v>
       </c>
-      <c r="F29" s="138">
+      <c r="F29" s="137">
         <v>0.88272122487528404</v>
       </c>
       <c r="G29" s="69">
         <f t="shared" si="0"/>
         <v>0.88878584145633055</v>
       </c>
-      <c r="I29" s="144"/>
+      <c r="I29" s="158"/>
       <c r="J29" s="78" t="s">
         <v>35</v>
       </c>
@@ -5187,26 +5199,26 @@
       <c r="A30">
         <v>4</v>
       </c>
-      <c r="B30" s="161" t="s">
+      <c r="B30" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="159">
+      <c r="C30" s="147">
         <v>0.93063493614218096</v>
       </c>
-      <c r="D30" s="137">
+      <c r="D30" s="136">
         <v>0.94455614281048605</v>
       </c>
-      <c r="E30" s="159">
+      <c r="E30" s="147">
         <v>0.94960659490389299</v>
       </c>
-      <c r="F30" s="137">
+      <c r="F30" s="136">
         <v>0.94032543064146701</v>
       </c>
-      <c r="G30" s="162">
+      <c r="G30" s="150">
         <f t="shared" si="0"/>
         <v>0.94128077612450678</v>
       </c>
-      <c r="I30" s="144"/>
+      <c r="I30" s="158"/>
       <c r="J30" s="37" t="s">
         <v>33</v>
       </c>
@@ -5227,26 +5239,26 @@
       <c r="A31">
         <v>5</v>
       </c>
-      <c r="B31" s="154" t="s">
+      <c r="B31" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="165">
+      <c r="C31" s="168">
         <v>0.93252228508214496</v>
       </c>
-      <c r="D31" s="138">
+      <c r="D31" s="137">
         <v>0.92695667228769496</v>
       </c>
       <c r="E31" s="70">
         <v>0.95550025542346095</v>
       </c>
-      <c r="F31" s="138">
+      <c r="F31" s="137">
         <v>0.94621159827797796</v>
       </c>
       <c r="G31" s="69">
         <f t="shared" ref="G31:G34" si="1">AVERAGE(C31,D31,E31,F31)</f>
         <v>0.94029770276781965</v>
       </c>
-      <c r="I31" s="144"/>
+      <c r="I31" s="158"/>
       <c r="J31" s="37" t="s">
         <v>34</v>
       </c>
@@ -5267,26 +5279,26 @@
       <c r="A32">
         <v>6</v>
       </c>
-      <c r="B32" s="152" t="s">
+      <c r="B32" s="140" t="s">
         <v>53</v>
       </c>
       <c r="C32" s="70">
         <v>0.91924775352578503</v>
       </c>
-      <c r="D32" s="138">
+      <c r="D32" s="137">
         <v>0.93693594016009696</v>
       </c>
       <c r="E32" s="70">
         <v>0.95137752291535904</v>
       </c>
-      <c r="F32" s="138">
+      <c r="F32" s="137">
         <v>0.94265481086242897</v>
       </c>
       <c r="G32" s="69">
         <f t="shared" si="1"/>
         <v>0.9375540068659175</v>
       </c>
-      <c r="I32" s="144"/>
+      <c r="I32" s="158"/>
       <c r="J32" s="37"/>
       <c r="K32" s="81"/>
       <c r="L32" s="70"/>
@@ -5297,26 +5309,26 @@
       <c r="A33">
         <v>7</v>
       </c>
-      <c r="B33" s="152" t="s">
+      <c r="B33" s="140" t="s">
         <v>54</v>
       </c>
       <c r="C33" s="70">
         <v>0.92366895341794497</v>
       </c>
-      <c r="D33" s="138">
+      <c r="D33" s="137">
         <v>0.94611855796508304</v>
       </c>
       <c r="E33" s="70">
         <v>0.95498447463069402</v>
       </c>
-      <c r="F33" s="138">
+      <c r="F33" s="137">
         <v>0.92147883588139301</v>
       </c>
       <c r="G33" s="69">
         <f t="shared" si="1"/>
         <v>0.93656270547377873</v>
       </c>
-      <c r="I33" s="144"/>
+      <c r="I33" s="158"/>
       <c r="J33" s="59" t="s">
         <v>24</v>
       </c>
@@ -5337,26 +5349,26 @@
       <c r="A34">
         <v>8</v>
       </c>
-      <c r="B34" s="163" t="s">
+      <c r="B34" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="160">
+      <c r="C34" s="148">
         <v>0.92403795172563097</v>
       </c>
-      <c r="D34" s="139">
+      <c r="D34" s="138">
         <v>0.93904052682102801</v>
       </c>
-      <c r="E34" s="160">
+      <c r="E34" s="148">
         <v>0.94181503831139002</v>
       </c>
-      <c r="F34" s="139">
+      <c r="F34" s="138">
         <v>0.94304824997875003</v>
       </c>
-      <c r="G34" s="164">
+      <c r="G34" s="152">
         <f t="shared" si="1"/>
         <v>0.93698544170919984</v>
       </c>
-      <c r="I34" s="144"/>
+      <c r="I34" s="158"/>
       <c r="J34" s="86" t="s">
         <v>39</v>
       </c>
@@ -5369,16 +5381,16 @@
       <c r="A35">
         <v>9</v>
       </c>
-      <c r="B35" s="154" t="s">
+      <c r="B35" s="142" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="70">
         <v>0.92966594521001</v>
       </c>
-      <c r="D35" s="138">
+      <c r="D35" s="137">
         <v>0.94811172337970895</v>
       </c>
-      <c r="E35" s="165">
+      <c r="E35" s="153">
         <v>0.960488422521524</v>
       </c>
       <c r="F35" s="74">
@@ -5388,7 +5400,7 @@
         <f>AVERAGE(C35,D35,E35,F35)</f>
         <v>0.94748433165888024</v>
       </c>
-      <c r="I35" s="144"/>
+      <c r="I35" s="158"/>
       <c r="J35" s="78" t="s">
         <v>36</v>
       </c>
@@ -5401,24 +5413,24 @@
       <c r="A36">
         <v>10</v>
       </c>
-      <c r="B36" s="154" t="s">
+      <c r="B36" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="70">
-        <v>0.92695667228769496</v>
+      <c r="C36" s="167">
+        <v>0.93380756718922198</v>
       </c>
       <c r="D36" s="74">
         <v>0.95153501290619003</v>
       </c>
       <c r="E36" s="70"/>
-      <c r="F36" s="138">
+      <c r="F36" s="137">
         <v>0.948000240221335</v>
       </c>
       <c r="G36" s="69">
         <f t="shared" ref="G36:G39" si="2">AVERAGE(C36,D36,E36,F36)</f>
-        <v>0.94216397513840666</v>
-      </c>
-      <c r="I36" s="144"/>
+        <v>0.94444760677224904</v>
+      </c>
+      <c r="I36" s="158"/>
       <c r="J36" s="37" t="s">
         <v>37</v>
       </c>
@@ -5431,24 +5443,24 @@
       <c r="A37">
         <v>11</v>
       </c>
-      <c r="B37" s="152" t="s">
+      <c r="B37" s="140" t="s">
         <v>56</v>
       </c>
       <c r="C37" s="70">
         <v>0.92540717681603002</v>
       </c>
-      <c r="D37" s="138">
+      <c r="D37" s="137">
         <v>0.94430969519343799</v>
       </c>
       <c r="E37" s="70"/>
-      <c r="F37" s="138">
+      <c r="F37" s="137">
         <v>0.94945811231849997</v>
       </c>
       <c r="G37" s="69">
         <f t="shared" si="2"/>
         <v>0.93972499477598925</v>
       </c>
-      <c r="I37" s="144"/>
+      <c r="I37" s="158"/>
       <c r="J37" s="37" t="s">
         <v>38</v>
       </c>
@@ -5463,24 +5475,24 @@
       <c r="A38">
         <v>12</v>
       </c>
-      <c r="B38" s="152" t="s">
+      <c r="B38" s="140" t="s">
         <v>57</v>
       </c>
       <c r="C38" s="70">
         <v>0.926820944877769</v>
       </c>
-      <c r="D38" s="138">
+      <c r="D38" s="137">
         <v>0.91524186903115701</v>
       </c>
       <c r="E38" s="70"/>
-      <c r="F38" s="138">
+      <c r="F38" s="137">
         <v>0.93483765755288595</v>
       </c>
       <c r="G38" s="69">
         <f t="shared" si="2"/>
         <v>0.92563349048727062</v>
       </c>
-      <c r="I38" s="145"/>
+      <c r="I38" s="159"/>
       <c r="J38" s="38"/>
       <c r="K38" s="71"/>
       <c r="L38" s="83"/>
@@ -5491,7 +5503,7 @@
       <c r="A39">
         <v>13</v>
       </c>
-      <c r="B39" s="155" t="s">
+      <c r="B39" s="143" t="s">
         <v>58</v>
       </c>
       <c r="C39" s="83">
@@ -5508,7 +5520,7 @@
         <f t="shared" si="2"/>
         <v>0.93567486466801542</v>
       </c>
-      <c r="I39" s="143" t="s">
+      <c r="I39" s="157" t="s">
         <v>42</v>
       </c>
       <c r="J39" s="36" t="s">
@@ -5517,7 +5529,7 @@
       <c r="K39" s="56">
         <v>0.91366666666666596</v>
       </c>
-      <c r="L39" s="151">
+      <c r="L39" s="139">
         <v>0.95814644463200904</v>
       </c>
       <c r="M39" s="56">
@@ -5528,7 +5540,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I40" s="144"/>
+      <c r="I40" s="158"/>
       <c r="J40" s="82" t="s">
         <v>32</v>
       </c>
@@ -5546,13 +5558,13 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="153"/>
+      <c r="B41" s="141"/>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
       <c r="E41" s="47"/>
       <c r="F41" s="47"/>
       <c r="G41" s="47"/>
-      <c r="I41" s="144"/>
+      <c r="I41" s="158"/>
       <c r="J41" s="78" t="s">
         <v>35</v>
       </c>
@@ -5570,7 +5582,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I42" s="144"/>
+      <c r="I42" s="158"/>
       <c r="J42" s="37" t="s">
         <v>33</v>
       </c>
@@ -5588,7 +5600,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I43" s="144"/>
+      <c r="I43" s="158"/>
       <c r="J43" s="37" t="s">
         <v>34</v>
       </c>
@@ -5606,7 +5618,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I44" s="144"/>
+      <c r="I44" s="158"/>
       <c r="J44" s="37"/>
       <c r="K44" s="90"/>
       <c r="L44" s="70"/>
@@ -5615,7 +5627,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E45" s="14"/>
-      <c r="I45" s="144"/>
+      <c r="I45" s="158"/>
       <c r="J45" s="99" t="s">
         <v>24</v>
       </c>
@@ -5634,7 +5646,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E46" s="14"/>
-      <c r="I46" s="144"/>
+      <c r="I46" s="158"/>
       <c r="J46" s="86" t="s">
         <v>39</v>
       </c>
@@ -5653,7 +5665,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E47" s="14"/>
-      <c r="I47" s="144"/>
+      <c r="I47" s="158"/>
       <c r="J47" s="78" t="s">
         <v>36</v>
       </c>
@@ -5672,26 +5684,26 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E48" s="14"/>
-      <c r="I48" s="144"/>
+      <c r="I48" s="158"/>
       <c r="J48" s="37" t="s">
         <v>37</v>
       </c>
       <c r="K48" s="97">
         <v>0.92400000000000004</v>
       </c>
-      <c r="L48" s="135">
+      <c r="L48" s="134">
         <v>0.93539714008536201</v>
       </c>
-      <c r="M48" s="136">
+      <c r="M48" s="135">
         <v>0.95746271297063801</v>
       </c>
-      <c r="N48" s="134">
+      <c r="N48" s="133">
         <v>0.945670663459526</v>
       </c>
     </row>
     <row r="49" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E49" s="129"/>
-      <c r="I49" s="144"/>
+      <c r="I49" s="158"/>
       <c r="J49" s="37" t="s">
         <v>38</v>
       </c>
@@ -5709,7 +5721,7 @@
       </c>
     </row>
     <row r="50" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I50" s="145"/>
+      <c r="I50" s="159"/>
       <c r="J50" s="38"/>
       <c r="K50" s="98"/>
       <c r="L50" s="83"/>
